--- a/raw_game_pulls/6200825_Play-By-Play for Cornell vs Dartmouth.xlsx
+++ b/raw_game_pulls/6200825_Play-By-Play for Cornell vs Dartmouth.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdona\repos\ncaa_2024\raw_game_pulls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3793F06A-4835-416B-8B33-8FE3899BCD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -688,93 +694,39 @@
     <t>Jumper MISSED by Dart's Mitchell-day, Brandon</t>
   </si>
   <si>
-    <t>CU Defensive REBOUND by Noard, Cooper</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by CU's Hansen, Sean</t>
-  </si>
-  <si>
-    <t>CU Assist by Gray, Isaiah</t>
-  </si>
-  <si>
     <t>3 Pointer GOOD by Dart's Neskovic, Dusan</t>
   </si>
   <si>
     <t>Dart Assist by Munro, Jackson</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by CU's Gray, Isaiah</t>
-  </si>
-  <si>
     <t>Dart Defensive REBOUND by team</t>
   </si>
   <si>
     <t>Jumper MISSED by Dart's Myrthil, Romeo</t>
   </si>
   <si>
-    <t>CU Defensive REBOUND by Gray, Isaiah</t>
-  </si>
-  <si>
-    <t>CU Assist by Williams, Nazir</t>
-  </si>
-  <si>
     <t>3 Pointer GOOD by Dart's Myrthil, Romeo</t>
   </si>
   <si>
-    <t>3 Pointer GOOD by CU's Noard, Cooper</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by Dart's Mitchell-day, Brandon</t>
   </si>
   <si>
-    <t>CU Defensive REBOUND by Manon, Chris</t>
-  </si>
-  <si>
-    <t>Layup MISSED by CU's Manon, Chris</t>
-  </si>
-  <si>
     <t>Dart Defensive REBOUND by Munro, Jackson</t>
   </si>
   <si>
-    <t>Foul on CU's Hansen, Sean</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by Dart's Mitchell-day, Brandon</t>
   </si>
   <si>
     <t>Dart Offensive REBOUND by Mitchell-day, Brandon</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by CU's Manon, Chris</t>
-  </si>
-  <si>
     <t>Dart Defensive REBOUND by Mitchell-day, Brandon</t>
   </si>
   <si>
-    <t>Foul on CU's Manon, Chris</t>
-  </si>
-  <si>
     <t>Media timeout</t>
   </si>
   <si>
-    <t>Subbing out for CU - Hansen, Sean</t>
-  </si>
-  <si>
-    <t>Subbing out for CU - Manon, Chris</t>
-  </si>
-  <si>
-    <t>Subbing out for CU - Noard, Cooper</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Okereke, Ak</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Boothby, Keller</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Ragland jr., Guy</t>
-  </si>
-  <si>
     <t>Subbing out for Dart - Myrthil, Romeo</t>
   </si>
   <si>
@@ -793,51 +745,21 @@
     <t>Foul on Dart's Christensen, Connor</t>
   </si>
   <si>
-    <t>Free Throw GOOD by CU's Okereke, Ak</t>
-  </si>
-  <si>
-    <t>Subbing out for CU - Gray, Isaiah</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Fiegen, Jake</t>
-  </si>
-  <si>
     <t>Subbing out for Dart - Christensen, Connor</t>
   </si>
   <si>
     <t>Subbing in for Dart - Mcrae III, Robert</t>
   </si>
   <si>
-    <t>Subbing out for CU - Williams, Nazir</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Beccles, Jacob</t>
-  </si>
-  <si>
     <t>Dart Assist by Johnson, Jaren</t>
   </si>
   <si>
-    <t>Layup GOOD by CU's Okereke, Ak</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by Dart's Neskovic, Dusan</t>
   </si>
   <si>
-    <t>CU Defensive REBOUND by Fiegen, Jake</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by CU's Boothby, Keller</t>
-  </si>
-  <si>
-    <t>CU Assist by Ragland jr., Guy</t>
-  </si>
-  <si>
     <t>Layup GOOD by Dart's Johnson, Jaren</t>
   </si>
   <si>
-    <t>Foul on CU's Beccles, Jacob</t>
-  </si>
-  <si>
     <t>Subbing out for Dart - Neskovic, Dusan</t>
   </si>
   <si>
@@ -853,12 +775,6 @@
     <t>Free Throw MISSED by Dart's Johnson, Jaren</t>
   </si>
   <si>
-    <t>Layup GOOD by CU's Fiegen, Jake</t>
-  </si>
-  <si>
-    <t>Foul on CU's Okereke, Ak</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by Dart's Williams, Jayden</t>
   </si>
   <si>
@@ -874,9 +790,6 @@
     <t>Free Throw GOOD by Dart's Williams, Jayden</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by CU's Boothby, Keller</t>
-  </si>
-  <si>
     <t>Dart Defensive REBOUND by Williams, Jayden</t>
   </si>
   <si>
@@ -886,12 +799,6 @@
     <t>Dart Assist by Williams, Jayden</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by CU's Fiegen, Jake</t>
-  </si>
-  <si>
-    <t>CU Offensive REBOUND by Ragland jr., Guy</t>
-  </si>
-  <si>
     <t>Dart Defensive REBOUND by Mcrae III, Robert</t>
   </si>
   <si>
@@ -904,60 +811,15 @@
     <t>Dart Assist by Abusara, Niko</t>
   </si>
   <si>
-    <t>Slam Dunk GOOD by CU's Okereke, Ak</t>
-  </si>
-  <si>
     <t>Dart Turnover by Mitchell-day, Brandon</t>
   </si>
   <si>
-    <t>CU Steal by Ragland jr., Guy</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by CU's Okereke, Ak</t>
-  </si>
-  <si>
-    <t>CU Offensive REBOUND by Fiegen, Jake</t>
-  </si>
-  <si>
-    <t>Layup MISSED by CU's Fiegen, Jake</t>
-  </si>
-  <si>
     <t>Dart Block by Mitchell-day, Brandon</t>
   </si>
   <si>
     <t>Dart Defensive REBOUND by Abusara, Niko</t>
   </si>
   <si>
-    <t>Subbing out for CU - Beccles, Jacob</t>
-  </si>
-  <si>
-    <t>Subbing out for CU - Okereke, Ak</t>
-  </si>
-  <si>
-    <t>Subbing out for CU - Boothby, Keller</t>
-  </si>
-  <si>
-    <t>Subbing out for CU - Ragland jr., Guy</t>
-  </si>
-  <si>
-    <t>Subbing out for CU - Fiegen, Jake</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Williams, Nazir</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Gray, Isaiah</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Hansen, Sean</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Manon, Chris</t>
-  </si>
-  <si>
-    <t>Subbing in for CU - Noard, Cooper</t>
-  </si>
-  <si>
     <t>Subbing out for Dart - Dimitrijevic, Nikola</t>
   </si>
   <si>
@@ -967,24 +829,12 @@
     <t>Subbing in for Dart - Munro, Jackson</t>
   </si>
   <si>
-    <t>Layup GOOD by CU's Manon, Chris</t>
-  </si>
-  <si>
-    <t>Foul on CU's Williams, Nazir</t>
-  </si>
-  <si>
     <t>Layup GOOD by Dart's Mcrae III, Robert</t>
   </si>
   <si>
-    <t>3 Pointer GOOD by CU's Manon, Chris</t>
-  </si>
-  <si>
     <t>3 Pointer GOOD by Dart's Williams, Jayden</t>
   </si>
   <si>
-    <t>CU Turnover by Manon, Chris</t>
-  </si>
-  <si>
     <t>Subbing out for Dart - Abusara, Niko</t>
   </si>
   <si>
@@ -994,21 +844,12 @@
     <t>Layup MISSED by Dart's Williams, Jayden</t>
   </si>
   <si>
-    <t>CU Defensive REBOUND by Williams, Nazir</t>
-  </si>
-  <si>
-    <t>Layup MISSED by CU's Williams, Nazir</t>
-  </si>
-  <si>
     <t>Dart Block by Williams, Jayden</t>
   </si>
   <si>
     <t>Dart Defensive REBOUND by Johnson, Jaren</t>
   </si>
   <si>
-    <t>CU Turnover by Hansen, Sean</t>
-  </si>
-  <si>
     <t>Dart Steal by Munro, Jackson</t>
   </si>
   <si>
@@ -1027,18 +868,9 @@
     <t>Layup MISSED by Dart's Neskovic, Dusan</t>
   </si>
   <si>
-    <t>CU Block by Boothby, Keller</t>
-  </si>
-  <si>
     <t>Dart Offensive REBOUND by Munro, Jackson</t>
   </si>
   <si>
-    <t>CU Steal by Boothby, Keller</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by CU's Williams, Nazir</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by Dart's Munro, Jackson</t>
   </si>
   <si>
@@ -1048,183 +880,78 @@
     <t>Foul on Dart's Johnson, Jaren</t>
   </si>
   <si>
-    <t>Free Throw GOOD by CU's Williams, Nazir</t>
-  </si>
-  <si>
     <t>Slam Dunk GOOD by Dart's Neskovic, Dusan</t>
   </si>
   <si>
-    <t>Foul on CU's Ragland jr., Guy</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by Dart's Neskovic, Dusan</t>
   </si>
   <si>
-    <t>Layup MISSED by CU's Ragland jr., Guy</t>
-  </si>
-  <si>
     <t>Dart Block by Johnson, Jaren</t>
   </si>
   <si>
-    <t>Free Throw MISSED by CU's Ragland jr., Guy</t>
-  </si>
-  <si>
-    <t>CU gets a REBOUND from a dead ball.</t>
-  </si>
-  <si>
-    <t>Free Throw GOOD by CU's Ragland jr., Guy</t>
-  </si>
-  <si>
     <t>Jumper MISSED by Dart's Dimitrijevic, Nikola</t>
   </si>
   <si>
-    <t>CU Defensive REBOUND by Ragland jr., Guy</t>
-  </si>
-  <si>
-    <t>CU Steal by Manon, Chris</t>
-  </si>
-  <si>
     <t>Dart Turnover by Dimitrijevic, Nikola</t>
   </si>
   <si>
-    <t>CU Turnover by Okereke, Ak</t>
-  </si>
-  <si>
     <t>Jumper MISSED by Dart's Mcrae III, Robert</t>
   </si>
   <si>
-    <t>CU Defensive REBOUND by Boothby, Keller</t>
-  </si>
-  <si>
     <t>Foul on Dart's Mcrae III, Robert</t>
   </si>
   <si>
     <t>Foul on Dart's Myrthil, Romeo</t>
   </si>
   <si>
-    <t>Free Throw MISSED by CU's Manon, Chris</t>
-  </si>
-  <si>
     <t>Dart Turnover by Neskovic, Dusan</t>
   </si>
   <si>
-    <t>3 Pointer MISSED by CU's Ragland jr., Guy</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by CU's Williams, Nazir</t>
-  </si>
-  <si>
     <t>Dart Turnover by Williams, Jayden</t>
   </si>
   <si>
     <t>Dart takes a 30-second time out.</t>
   </si>
   <si>
-    <t>Jumper MISSED by CU's Williams, Nazir</t>
-  </si>
-  <si>
-    <t>CU Offensive REBOUND by Noard, Cooper</t>
-  </si>
-  <si>
-    <t>3 Pointer GOOD by CU's Fiegen, Jake</t>
-  </si>
-  <si>
-    <t>CU Assist by Noard, Cooper</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by Dart's Munro, Jackson</t>
   </si>
   <si>
     <t>Free Throw MISSED by Dart's Munro, Jackson</t>
   </si>
   <si>
-    <t>CU Defensive REBOUND by Hansen, Sean</t>
-  </si>
-  <si>
-    <t>Layup GOOD by CU's Noard, Cooper</t>
-  </si>
-  <si>
     <t>Foul on Dart's Neskovic, Dusan</t>
   </si>
   <si>
-    <t>Free Throw GOOD by CU's Noard, Cooper</t>
-  </si>
-  <si>
-    <t>CU Assist by Hansen, Sean</t>
-  </si>
-  <si>
     <t>Jumper MISSED by Dart's Johnson, Jaren</t>
   </si>
   <si>
-    <t>CU Assist by Manon, Chris</t>
-  </si>
-  <si>
     <t>Dart Turnover by Myrthil, Romeo</t>
   </si>
   <si>
-    <t>CU Steal by Gray, Isaiah</t>
-  </si>
-  <si>
-    <t>Layup MISSED by CU's Gray, Isaiah</t>
-  </si>
-  <si>
-    <t>CU Offensive REBOUND by Hansen, Sean</t>
-  </si>
-  <si>
     <t>Foul on Dart's Munro, Jackson</t>
   </si>
   <si>
-    <t>Free Throw MISSED by CU's Hansen, Sean</t>
-  </si>
-  <si>
     <t>Layup MISSED by Dart's Mitchell-day, Brandon</t>
   </si>
   <si>
-    <t>CU Turnover by Gray, Isaiah</t>
-  </si>
-  <si>
     <t>Dart Steal by Myrthil, Romeo</t>
   </si>
   <si>
-    <t>CU Offensive REBOUND by Williams, Nazir</t>
-  </si>
-  <si>
-    <t>Jumper GOOD by CU's Williams, Nazir</t>
-  </si>
-  <si>
     <t>Slam Dunk GOOD by Dart's Myrthil, Romeo</t>
   </si>
   <si>
     <t>Dart Assist by Mitchell-day, Brandon</t>
   </si>
   <si>
-    <t>CU Turnover by Williams, Nazir</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by Dart's Johnson, Jaren</t>
   </si>
   <si>
     <t>Layup GOOD by Dart's Mitchell-day, Brandon</t>
   </si>
   <si>
-    <t>CU Offensive REBOUND by team</t>
-  </si>
-  <si>
-    <t>CU Offensive REBOUND by Gray, Isaiah</t>
-  </si>
-  <si>
-    <t>Layup GOOD by CU's Gray, Isaiah</t>
-  </si>
-  <si>
     <t>Layup GOOD by Dart's Neskovic, Dusan</t>
   </si>
   <si>
-    <t>Free Throw MISSED by CU's Gray, Isaiah</t>
-  </si>
-  <si>
-    <t>CU Offensive REBOUND by Okereke, Ak</t>
-  </si>
-  <si>
     <t>3 Pointer GOOD by Dart's Munro, Jackson</t>
   </si>
   <si>
@@ -1240,24 +967,12 @@
     <t>3 Pointer MISSED by Dart's Christensen, Connor</t>
   </si>
   <si>
-    <t>CU Steal by Williams, Nazir</t>
-  </si>
-  <si>
-    <t>3 Pointer MISSED by CU's Noard, Cooper</t>
-  </si>
-  <si>
-    <t>Foul on CU's Gray, Isaiah</t>
-  </si>
-  <si>
     <t>Free Throw MISSED by Dart's Neskovic, Dusan</t>
   </si>
   <si>
     <t>Dart Steal by Neskovic, Dusan</t>
   </si>
   <si>
-    <t>Free Throw GOOD by CU's Manon, Chris</t>
-  </si>
-  <si>
     <t>Jumper MISSED by Dart's Munro, Jackson</t>
   </si>
   <si>
@@ -1267,53 +982,344 @@
     <t>Foul on Dart's Mitchell-day, Brandon</t>
   </si>
   <si>
-    <t>CU Defensive REBOUND by Okereke, Ak</t>
-  </si>
-  <si>
-    <t>CU Assist by Okereke, Ak</t>
-  </si>
-  <si>
-    <t>Foul on CU's Fiegen, Jake</t>
-  </si>
-  <si>
     <t>3 Pointer MISSED by Dart's Williams, Jayden</t>
   </si>
   <si>
     <t>Dart Defensive REBOUND by Neskovic, Dusan</t>
   </si>
   <si>
-    <t>CU Block by Ragland jr., Guy</t>
-  </si>
-  <si>
     <t>Dart Turnover by team</t>
   </si>
   <si>
     <t>Dart Offensive REBOUND by Johnson, Jaren</t>
   </si>
   <si>
-    <t>Free Throw GOOD by CU's Gray, Isaiah</t>
-  </si>
-  <si>
     <t>Free Throw GOOD by Dart's Johnson, Jaren</t>
   </si>
   <si>
     <t>3 Pointer GOOD by Dart's Johnson, Jaren</t>
   </si>
   <si>
-    <t>Jumper MISSED by CU's Manon, Chris</t>
-  </si>
-  <si>
     <t>Dart Defensive REBOUND by Myrthil, Romeo</t>
   </si>
   <si>
-    <t>CU Defensive REBOUND by team</t>
+    <t>CORNELL Defensive REBOUND by Noard, Cooper</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Gray, Isaiah</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by Gray, Isaiah</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Williams, Nazir</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by Manon, Chris</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Hansen, Sean</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Manon, Chris</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Noard, Cooper</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Okereke, Ak</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Boothby, Keller</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Gray, Isaiah</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Fiegen, Jake</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Williams, Nazir</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Beccles, Jacob</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by Fiegen, Jake</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>CORNELL Offensive REBOUND by Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>CORNELL Steal by Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>CORNELL Offensive REBOUND by Fiegen, Jake</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Beccles, Jacob</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Okereke, Ak</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Boothby, Keller</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>Subbing out for CORNELL - Fiegen, Jake</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Williams, Nazir</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Gray, Isaiah</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Hansen, Sean</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Manon, Chris</t>
+  </si>
+  <si>
+    <t>Subbing in for CORNELL - Noard, Cooper</t>
+  </si>
+  <si>
+    <t>CORNELL Turnover by Manon, Chris</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by Williams, Nazir</t>
+  </si>
+  <si>
+    <t>CORNELL Turnover by Hansen, Sean</t>
+  </si>
+  <si>
+    <t>CORNELL Block by Boothby, Keller</t>
+  </si>
+  <si>
+    <t>CORNELL Steal by Boothby, Keller</t>
+  </si>
+  <si>
+    <t>CORNELL gets a REBOUND from a dead ball.</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>CORNELL Steal by Manon, Chris</t>
+  </si>
+  <si>
+    <t>CORNELL Turnover by Okereke, Ak</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by Boothby, Keller</t>
+  </si>
+  <si>
+    <t>CORNELL Offensive REBOUND by Noard, Cooper</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Noard, Cooper</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by Hansen, Sean</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Hansen, Sean</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Manon, Chris</t>
+  </si>
+  <si>
+    <t>CORNELL Steal by Gray, Isaiah</t>
+  </si>
+  <si>
+    <t>CORNELL Offensive REBOUND by Hansen, Sean</t>
+  </si>
+  <si>
+    <t>CORNELL Turnover by Gray, Isaiah</t>
+  </si>
+  <si>
+    <t>CORNELL Offensive REBOUND by Williams, Nazir</t>
+  </si>
+  <si>
+    <t>CORNELL Turnover by Williams, Nazir</t>
+  </si>
+  <si>
+    <t>CORNELL Offensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>CORNELL Offensive REBOUND by Gray, Isaiah</t>
+  </si>
+  <si>
+    <t>CORNELL Offensive REBOUND by Okereke, Ak</t>
+  </si>
+  <si>
+    <t>CORNELL Steal by Williams, Nazir</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by Okereke, Ak</t>
+  </si>
+  <si>
+    <t>CORNELL Assist by Okereke, Ak</t>
+  </si>
+  <si>
+    <t>CORNELL Block by Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>CORNELL Defensive REBOUND by team</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by CORNELL's Hansen, Sean</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Gray, Isaiah</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by CORNELL's Noard, Cooper</t>
+  </si>
+  <si>
+    <t>Layup MISSED by CORNELL's Manon, Chris</t>
+  </si>
+  <si>
+    <t>Foul on CORNELL's Hansen, Sean</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Manon, Chris</t>
+  </si>
+  <si>
+    <t>Foul on CORNELL's Manon, Chris</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by CORNELL's Okereke, Ak</t>
+  </si>
+  <si>
+    <t>Layup GOOD by CORNELL's Okereke, Ak</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by CORNELL's Boothby, Keller</t>
+  </si>
+  <si>
+    <t>Foul on CORNELL's Beccles, Jacob</t>
+  </si>
+  <si>
+    <t>Layup GOOD by CORNELL's Fiegen, Jake</t>
+  </si>
+  <si>
+    <t>Foul on CORNELL's Okereke, Ak</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Boothby, Keller</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Fiegen, Jake</t>
+  </si>
+  <si>
+    <t>Slam Dunk GOOD by CORNELL's Okereke, Ak</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Okereke, Ak</t>
+  </si>
+  <si>
+    <t>Layup MISSED by CORNELL's Fiegen, Jake</t>
+  </si>
+  <si>
+    <t>Layup GOOD by CORNELL's Manon, Chris</t>
+  </si>
+  <si>
+    <t>Foul on CORNELL's Williams, Nazir</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by CORNELL's Manon, Chris</t>
+  </si>
+  <si>
+    <t>Layup MISSED by CORNELL's Williams, Nazir</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Williams, Nazir</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by CORNELL's Williams, Nazir</t>
+  </si>
+  <si>
+    <t>Foul on CORNELL's Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>Layup MISSED by CORNELL's Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by CORNELL's Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by CORNELL's Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by CORNELL's Manon, Chris</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Ragland jr., Guy</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by CORNELL's Williams, Nazir</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by CORNELL's Williams, Nazir</t>
+  </si>
+  <si>
+    <t>3 Pointer GOOD by CORNELL's Fiegen, Jake</t>
+  </si>
+  <si>
+    <t>Layup GOOD by CORNELL's Noard, Cooper</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by CORNELL's Noard, Cooper</t>
+  </si>
+  <si>
+    <t>Layup MISSED by CORNELL's Gray, Isaiah</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by CORNELL's Hansen, Sean</t>
+  </si>
+  <si>
+    <t>Jumper GOOD by CORNELL's Williams, Nazir</t>
+  </si>
+  <si>
+    <t>Layup GOOD by CORNELL's Gray, Isaiah</t>
+  </si>
+  <si>
+    <t>Free Throw MISSED by CORNELL's Gray, Isaiah</t>
+  </si>
+  <si>
+    <t>3 Pointer MISSED by CORNELL's Noard, Cooper</t>
+  </si>
+  <si>
+    <t>Foul on CORNELL's Gray, Isaiah</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by CORNELL's Manon, Chris</t>
+  </si>
+  <si>
+    <t>Foul on CORNELL's Fiegen, Jake</t>
+  </si>
+  <si>
+    <t>Free Throw GOOD by CORNELL's Gray, Isaiah</t>
+  </si>
+  <si>
+    <t>Jumper MISSED by CORNELL's Manon, Chris</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1376,13 +1382,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1420,7 +1434,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1454,6 +1468,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1488,9 +1503,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1663,14 +1679,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E534"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1704,7 +1722,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1718,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1735,10 +1753,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1752,10 +1770,10 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1769,10 +1787,10 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1786,10 +1804,10 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1803,10 +1821,10 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1820,10 +1838,10 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1837,10 +1855,10 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1854,10 +1872,10 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1871,10 +1889,10 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1888,10 +1906,10 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1905,10 +1923,10 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1922,10 +1940,10 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1939,10 +1957,10 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1956,10 +1974,10 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1973,10 +1991,10 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1990,10 +2008,10 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2007,10 +2025,10 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2024,10 +2042,10 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2041,10 +2059,10 @@
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2058,10 +2076,10 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2075,10 +2093,10 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2092,10 +2110,10 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -2109,10 +2127,10 @@
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -2126,10 +2144,10 @@
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2143,10 +2161,10 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -2160,10 +2178,10 @@
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2177,10 +2195,10 @@
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2194,10 +2212,10 @@
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2211,10 +2229,10 @@
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -2228,10 +2246,10 @@
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2245,10 +2263,10 @@
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2262,10 +2280,10 @@
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2279,10 +2297,10 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -2296,10 +2314,10 @@
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -2313,10 +2331,10 @@
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2330,10 +2348,10 @@
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2347,10 +2365,10 @@
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2364,10 +2382,10 @@
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2381,10 +2399,10 @@
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2398,10 +2416,10 @@
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2415,10 +2433,10 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2432,10 +2450,10 @@
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2449,10 +2467,10 @@
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2466,10 +2484,10 @@
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2483,10 +2501,10 @@
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2500,10 +2518,10 @@
         <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2517,10 +2535,10 @@
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2534,10 +2552,10 @@
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2551,10 +2569,10 @@
         <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2568,10 +2586,10 @@
         <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2585,10 +2603,10 @@
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2602,10 +2620,10 @@
         <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2619,10 +2637,10 @@
         <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2636,10 +2654,10 @@
         <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2653,10 +2671,10 @@
         <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2670,10 +2688,10 @@
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2687,10 +2705,10 @@
         <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2704,10 +2722,10 @@
         <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2721,10 +2739,10 @@
         <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2738,10 +2756,10 @@
         <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2755,10 +2773,10 @@
         <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2772,10 +2790,10 @@
         <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2789,10 +2807,10 @@
         <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2806,10 +2824,10 @@
         <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2823,10 +2841,10 @@
         <v>18</v>
       </c>
       <c r="E68" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2840,10 +2858,10 @@
         <v>18</v>
       </c>
       <c r="E69" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2857,10 +2875,10 @@
         <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2874,10 +2892,10 @@
         <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2891,10 +2909,10 @@
         <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2908,10 +2926,10 @@
         <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2925,10 +2943,10 @@
         <v>18</v>
       </c>
       <c r="E74" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2942,10 +2960,10 @@
         <v>18</v>
       </c>
       <c r="E75" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2959,10 +2977,10 @@
         <v>18</v>
       </c>
       <c r="E76" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
@@ -2976,10 +2994,10 @@
         <v>18</v>
       </c>
       <c r="E77" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2993,10 +3011,10 @@
         <v>18</v>
       </c>
       <c r="E78" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3010,10 +3028,10 @@
         <v>18</v>
       </c>
       <c r="E79" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3027,10 +3045,10 @@
         <v>18</v>
       </c>
       <c r="E80" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3044,10 +3062,10 @@
         <v>18</v>
       </c>
       <c r="E81" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3061,10 +3079,10 @@
         <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3078,10 +3096,10 @@
         <v>18</v>
       </c>
       <c r="E83" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3095,10 +3113,10 @@
         <v>18</v>
       </c>
       <c r="E84" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3112,10 +3130,10 @@
         <v>18</v>
       </c>
       <c r="E85" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3129,10 +3147,10 @@
         <v>18</v>
       </c>
       <c r="E86" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3146,10 +3164,10 @@
         <v>18</v>
       </c>
       <c r="E87" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3163,10 +3181,10 @@
         <v>20</v>
       </c>
       <c r="E88" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3180,10 +3198,10 @@
         <v>20</v>
       </c>
       <c r="E89" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3197,10 +3215,10 @@
         <v>20</v>
       </c>
       <c r="E90" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3214,10 +3232,10 @@
         <v>20</v>
       </c>
       <c r="E91" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3231,10 +3249,10 @@
         <v>20</v>
       </c>
       <c r="E92" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3248,10 +3266,10 @@
         <v>20</v>
       </c>
       <c r="E93" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3265,10 +3283,10 @@
         <v>20</v>
       </c>
       <c r="E94" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3282,10 +3300,10 @@
         <v>20</v>
       </c>
       <c r="E95" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3299,10 +3317,10 @@
         <v>20</v>
       </c>
       <c r="E96" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3316,10 +3334,10 @@
         <v>20</v>
       </c>
       <c r="E97" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3333,10 +3351,10 @@
         <v>20</v>
       </c>
       <c r="E98" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3350,10 +3368,10 @@
         <v>20</v>
       </c>
       <c r="E99" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3367,10 +3385,10 @@
         <v>20</v>
       </c>
       <c r="E100" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3384,10 +3402,10 @@
         <v>20</v>
       </c>
       <c r="E101" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3401,10 +3419,10 @@
         <v>20</v>
       </c>
       <c r="E102" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3418,10 +3436,10 @@
         <v>20</v>
       </c>
       <c r="E103" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3435,10 +3453,10 @@
         <v>20</v>
       </c>
       <c r="E104" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3452,10 +3470,10 @@
         <v>20</v>
       </c>
       <c r="E105" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3469,10 +3487,10 @@
         <v>20</v>
       </c>
       <c r="E106" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -3486,10 +3504,10 @@
         <v>20</v>
       </c>
       <c r="E107" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -3503,10 +3521,10 @@
         <v>20</v>
       </c>
       <c r="E108" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -3520,10 +3538,10 @@
         <v>20</v>
       </c>
       <c r="E109" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3537,10 +3555,10 @@
         <v>20</v>
       </c>
       <c r="E110" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1</v>
       </c>
@@ -3554,10 +3572,10 @@
         <v>20</v>
       </c>
       <c r="E111" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -3571,10 +3589,10 @@
         <v>20</v>
       </c>
       <c r="E112" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1</v>
       </c>
@@ -3588,10 +3606,10 @@
         <v>20</v>
       </c>
       <c r="E113" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3605,10 +3623,10 @@
         <v>20</v>
       </c>
       <c r="E114" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1</v>
       </c>
@@ -3622,10 +3640,10 @@
         <v>20</v>
       </c>
       <c r="E115" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -3639,10 +3657,10 @@
         <v>20</v>
       </c>
       <c r="E116" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1</v>
       </c>
@@ -3656,10 +3674,10 @@
         <v>22</v>
       </c>
       <c r="E117" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3673,10 +3691,10 @@
         <v>22</v>
       </c>
       <c r="E118" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -3690,10 +3708,10 @@
         <v>22</v>
       </c>
       <c r="E119" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3707,10 +3725,10 @@
         <v>25</v>
       </c>
       <c r="E120" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1</v>
       </c>
@@ -3724,10 +3742,10 @@
         <v>25</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1</v>
       </c>
@@ -3741,10 +3759,10 @@
         <v>25</v>
       </c>
       <c r="E122" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -3758,10 +3776,10 @@
         <v>25</v>
       </c>
       <c r="E123" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -3775,10 +3793,10 @@
         <v>25</v>
       </c>
       <c r="E124" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1</v>
       </c>
@@ -3792,10 +3810,10 @@
         <v>25</v>
       </c>
       <c r="E125" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3809,10 +3827,10 @@
         <v>25</v>
       </c>
       <c r="E126" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3826,10 +3844,10 @@
         <v>25</v>
       </c>
       <c r="E127" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -3843,10 +3861,10 @@
         <v>25</v>
       </c>
       <c r="E128" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -3860,10 +3878,10 @@
         <v>27</v>
       </c>
       <c r="E129" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1</v>
       </c>
@@ -3877,10 +3895,10 @@
         <v>27</v>
       </c>
       <c r="E130" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -3894,10 +3912,10 @@
         <v>27</v>
       </c>
       <c r="E131" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1</v>
       </c>
@@ -3911,10 +3929,10 @@
         <v>27</v>
       </c>
       <c r="E132" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1</v>
       </c>
@@ -3928,10 +3946,10 @@
         <v>27</v>
       </c>
       <c r="E133" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1</v>
       </c>
@@ -3945,10 +3963,10 @@
         <v>27</v>
       </c>
       <c r="E134" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1</v>
       </c>
@@ -3962,10 +3980,10 @@
         <v>27</v>
       </c>
       <c r="E135" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1</v>
       </c>
@@ -3979,10 +3997,10 @@
         <v>27</v>
       </c>
       <c r="E136" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1</v>
       </c>
@@ -3996,10 +4014,10 @@
         <v>27</v>
       </c>
       <c r="E137" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1</v>
       </c>
@@ -4013,10 +4031,10 @@
         <v>27</v>
       </c>
       <c r="E138" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -4030,10 +4048,10 @@
         <v>27</v>
       </c>
       <c r="E139" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -4047,10 +4065,10 @@
         <v>27</v>
       </c>
       <c r="E140" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -4064,10 +4082,10 @@
         <v>27</v>
       </c>
       <c r="E141" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1</v>
       </c>
@@ -4081,10 +4099,10 @@
         <v>27</v>
       </c>
       <c r="E142" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1</v>
       </c>
@@ -4098,10 +4116,10 @@
         <v>27</v>
       </c>
       <c r="E143" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1</v>
       </c>
@@ -4115,10 +4133,10 @@
         <v>27</v>
       </c>
       <c r="E144" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -4132,10 +4150,10 @@
         <v>27</v>
       </c>
       <c r="E145" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -4149,10 +4167,10 @@
         <v>27</v>
       </c>
       <c r="E146" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -4166,10 +4184,10 @@
         <v>27</v>
       </c>
       <c r="E147" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1</v>
       </c>
@@ -4183,10 +4201,10 @@
         <v>27</v>
       </c>
       <c r="E148" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1</v>
       </c>
@@ -4200,10 +4218,10 @@
         <v>27</v>
       </c>
       <c r="E149" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1</v>
       </c>
@@ -4217,10 +4235,10 @@
         <v>27</v>
       </c>
       <c r="E150" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -4234,10 +4252,10 @@
         <v>27</v>
       </c>
       <c r="E151" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -4251,10 +4269,10 @@
         <v>27</v>
       </c>
       <c r="E152" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -4268,10 +4286,10 @@
         <v>27</v>
       </c>
       <c r="E153" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1</v>
       </c>
@@ -4285,10 +4303,10 @@
         <v>27</v>
       </c>
       <c r="E154" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1</v>
       </c>
@@ -4302,10 +4320,10 @@
         <v>27</v>
       </c>
       <c r="E155" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1</v>
       </c>
@@ -4319,10 +4337,10 @@
         <v>27</v>
       </c>
       <c r="E156" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1</v>
       </c>
@@ -4336,10 +4354,10 @@
         <v>27</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -4353,10 +4371,10 @@
         <v>27</v>
       </c>
       <c r="E158" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1</v>
       </c>
@@ -4370,10 +4388,10 @@
         <v>27</v>
       </c>
       <c r="E159" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1</v>
       </c>
@@ -4387,10 +4405,10 @@
         <v>27</v>
       </c>
       <c r="E160" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1</v>
       </c>
@@ -4404,10 +4422,10 @@
         <v>27</v>
       </c>
       <c r="E161" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1</v>
       </c>
@@ -4421,10 +4439,10 @@
         <v>27</v>
       </c>
       <c r="E162" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1</v>
       </c>
@@ -4438,10 +4456,10 @@
         <v>27</v>
       </c>
       <c r="E163" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -4455,10 +4473,10 @@
         <v>27</v>
       </c>
       <c r="E164" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -4472,10 +4490,10 @@
         <v>27</v>
       </c>
       <c r="E165" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
@@ -4489,10 +4507,10 @@
         <v>28</v>
       </c>
       <c r="E166" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -4506,10 +4524,10 @@
         <v>28</v>
       </c>
       <c r="E167" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -4523,10 +4541,10 @@
         <v>28</v>
       </c>
       <c r="E168" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -4540,10 +4558,10 @@
         <v>29</v>
       </c>
       <c r="E169" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -4557,10 +4575,10 @@
         <v>29</v>
       </c>
       <c r="E170" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1</v>
       </c>
@@ -4574,10 +4592,10 @@
         <v>29</v>
       </c>
       <c r="E171" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
@@ -4591,10 +4609,10 @@
         <v>29</v>
       </c>
       <c r="E172" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
@@ -4608,10 +4626,10 @@
         <v>29</v>
       </c>
       <c r="E173" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1</v>
       </c>
@@ -4625,10 +4643,10 @@
         <v>29</v>
       </c>
       <c r="E174" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -4642,10 +4660,10 @@
         <v>29</v>
       </c>
       <c r="E175" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -4659,10 +4677,10 @@
         <v>29</v>
       </c>
       <c r="E176" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1</v>
       </c>
@@ -4676,10 +4694,10 @@
         <v>29</v>
       </c>
       <c r="E177" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -4693,10 +4711,10 @@
         <v>29</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
@@ -4710,10 +4728,10 @@
         <v>29</v>
       </c>
       <c r="E179" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
@@ -4727,10 +4745,10 @@
         <v>29</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
@@ -4744,10 +4762,10 @@
         <v>29</v>
       </c>
       <c r="E181" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -4761,10 +4779,10 @@
         <v>29</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -4778,10 +4796,10 @@
         <v>29</v>
       </c>
       <c r="E183" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1</v>
       </c>
@@ -4795,10 +4813,10 @@
         <v>29</v>
       </c>
       <c r="E184" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1</v>
       </c>
@@ -4812,10 +4830,10 @@
         <v>29</v>
       </c>
       <c r="E185" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -4829,10 +4847,10 @@
         <v>29</v>
       </c>
       <c r="E186" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -4846,10 +4864,10 @@
         <v>30</v>
       </c>
       <c r="E187" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -4863,10 +4881,10 @@
         <v>30</v>
       </c>
       <c r="E188" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -4880,10 +4898,10 @@
         <v>30</v>
       </c>
       <c r="E189" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -4897,10 +4915,10 @@
         <v>30</v>
       </c>
       <c r="E190" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -4914,10 +4932,10 @@
         <v>30</v>
       </c>
       <c r="E191" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -4931,10 +4949,10 @@
         <v>30</v>
       </c>
       <c r="E192" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -4948,10 +4966,10 @@
         <v>30</v>
       </c>
       <c r="E193" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -4965,10 +4983,10 @@
         <v>32</v>
       </c>
       <c r="E194" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -4982,10 +5000,10 @@
         <v>32</v>
       </c>
       <c r="E195" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -4999,10 +5017,10 @@
         <v>32</v>
       </c>
       <c r="E196" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -5016,10 +5034,10 @@
         <v>32</v>
       </c>
       <c r="E197" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -5033,10 +5051,10 @@
         <v>32</v>
       </c>
       <c r="E198" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -5050,10 +5068,10 @@
         <v>32</v>
       </c>
       <c r="E199" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -5067,10 +5085,10 @@
         <v>32</v>
       </c>
       <c r="E200" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -5084,10 +5102,10 @@
         <v>32</v>
       </c>
       <c r="E201" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -5101,10 +5119,10 @@
         <v>32</v>
       </c>
       <c r="E202" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -5118,10 +5136,10 @@
         <v>32</v>
       </c>
       <c r="E203" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -5135,10 +5153,10 @@
         <v>32</v>
       </c>
       <c r="E204" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
@@ -5152,10 +5170,10 @@
         <v>32</v>
       </c>
       <c r="E205" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
@@ -5169,10 +5187,10 @@
         <v>32</v>
       </c>
       <c r="E206" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -5186,10 +5204,10 @@
         <v>32</v>
       </c>
       <c r="E207" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -5203,10 +5221,10 @@
         <v>32</v>
       </c>
       <c r="E208" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -5220,10 +5238,10 @@
         <v>32</v>
       </c>
       <c r="E209" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
@@ -5237,10 +5255,10 @@
         <v>32</v>
       </c>
       <c r="E210" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1</v>
       </c>
@@ -5254,10 +5272,10 @@
         <v>32</v>
       </c>
       <c r="E211" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1</v>
       </c>
@@ -5271,10 +5289,10 @@
         <v>32</v>
       </c>
       <c r="E212" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
@@ -5288,10 +5306,10 @@
         <v>34</v>
       </c>
       <c r="E213" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1</v>
       </c>
@@ -5305,10 +5323,10 @@
         <v>34</v>
       </c>
       <c r="E214" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1</v>
       </c>
@@ -5322,10 +5340,10 @@
         <v>34</v>
       </c>
       <c r="E215" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1</v>
       </c>
@@ -5339,10 +5357,10 @@
         <v>34</v>
       </c>
       <c r="E216" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1</v>
       </c>
@@ -5356,10 +5374,10 @@
         <v>34</v>
       </c>
       <c r="E217" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1</v>
       </c>
@@ -5373,10 +5391,10 @@
         <v>34</v>
       </c>
       <c r="E218" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1</v>
       </c>
@@ -5390,10 +5408,10 @@
         <v>34</v>
       </c>
       <c r="E219" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1</v>
       </c>
@@ -5407,10 +5425,10 @@
         <v>34</v>
       </c>
       <c r="E220" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -5424,10 +5442,10 @@
         <v>34</v>
       </c>
       <c r="E221" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1</v>
       </c>
@@ -5441,10 +5459,10 @@
         <v>34</v>
       </c>
       <c r="E222" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1</v>
       </c>
@@ -5458,10 +5476,10 @@
         <v>34</v>
       </c>
       <c r="E223" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1</v>
       </c>
@@ -5475,10 +5493,10 @@
         <v>37</v>
       </c>
       <c r="E224" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1</v>
       </c>
@@ -5492,10 +5510,10 @@
         <v>37</v>
       </c>
       <c r="E225" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1</v>
       </c>
@@ -5509,10 +5527,10 @@
         <v>37</v>
       </c>
       <c r="E226" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1</v>
       </c>
@@ -5526,10 +5544,10 @@
         <v>39</v>
       </c>
       <c r="E227" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1</v>
       </c>
@@ -5543,10 +5561,10 @@
         <v>39</v>
       </c>
       <c r="E228" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1</v>
       </c>
@@ -5560,10 +5578,10 @@
         <v>39</v>
       </c>
       <c r="E229" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1</v>
       </c>
@@ -5577,10 +5595,10 @@
         <v>39</v>
       </c>
       <c r="E230" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1</v>
       </c>
@@ -5594,10 +5612,10 @@
         <v>39</v>
       </c>
       <c r="E231" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1</v>
       </c>
@@ -5611,10 +5629,10 @@
         <v>41</v>
       </c>
       <c r="E232" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1</v>
       </c>
@@ -5628,10 +5646,10 @@
         <v>41</v>
       </c>
       <c r="E233" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1</v>
       </c>
@@ -5645,10 +5663,10 @@
         <v>41</v>
       </c>
       <c r="E234" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1</v>
       </c>
@@ -5662,10 +5680,10 @@
         <v>41</v>
       </c>
       <c r="E235" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
@@ -5679,10 +5697,10 @@
         <v>41</v>
       </c>
       <c r="E236" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1</v>
       </c>
@@ -5696,10 +5714,10 @@
         <v>44</v>
       </c>
       <c r="E237" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1</v>
       </c>
@@ -5713,10 +5731,10 @@
         <v>44</v>
       </c>
       <c r="E238" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1</v>
       </c>
@@ -5730,10 +5748,10 @@
         <v>44</v>
       </c>
       <c r="E239" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1</v>
       </c>
@@ -5747,10 +5765,10 @@
         <v>44</v>
       </c>
       <c r="E240" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1</v>
       </c>
@@ -5764,10 +5782,10 @@
         <v>44</v>
       </c>
       <c r="E241" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1</v>
       </c>
@@ -5781,10 +5799,10 @@
         <v>44</v>
       </c>
       <c r="E242" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1</v>
       </c>
@@ -5798,10 +5816,10 @@
         <v>44</v>
       </c>
       <c r="E243" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1</v>
       </c>
@@ -5815,10 +5833,10 @@
         <v>44</v>
       </c>
       <c r="E244" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1</v>
       </c>
@@ -5832,10 +5850,10 @@
         <v>46</v>
       </c>
       <c r="E245" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1</v>
       </c>
@@ -5849,10 +5867,10 @@
         <v>46</v>
       </c>
       <c r="E246" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1</v>
       </c>
@@ -5866,10 +5884,10 @@
         <v>47</v>
       </c>
       <c r="E247" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1</v>
       </c>
@@ -5883,10 +5901,10 @@
         <v>47</v>
       </c>
       <c r="E248" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1</v>
       </c>
@@ -5900,10 +5918,10 @@
         <v>47</v>
       </c>
       <c r="E249" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1</v>
       </c>
@@ -5917,10 +5935,10 @@
         <v>47</v>
       </c>
       <c r="E250" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1</v>
       </c>
@@ -5934,10 +5952,10 @@
         <v>50</v>
       </c>
       <c r="E251" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1</v>
       </c>
@@ -5951,10 +5969,10 @@
         <v>50</v>
       </c>
       <c r="E252" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1</v>
       </c>
@@ -5968,10 +5986,10 @@
         <v>50</v>
       </c>
       <c r="E253" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1</v>
       </c>
@@ -5985,10 +6003,10 @@
         <v>50</v>
       </c>
       <c r="E254" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1</v>
       </c>
@@ -6002,10 +6020,10 @@
         <v>50</v>
       </c>
       <c r="E255" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1</v>
       </c>
@@ -6019,10 +6037,10 @@
         <v>50</v>
       </c>
       <c r="E256" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>2</v>
       </c>
@@ -6036,10 +6054,10 @@
         <v>50</v>
       </c>
       <c r="E257" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>2</v>
       </c>
@@ -6053,10 +6071,10 @@
         <v>50</v>
       </c>
       <c r="E258" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>2</v>
       </c>
@@ -6070,10 +6088,10 @@
         <v>50</v>
       </c>
       <c r="E259" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>2</v>
       </c>
@@ -6087,10 +6105,10 @@
         <v>50</v>
       </c>
       <c r="E260" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2</v>
       </c>
@@ -6104,10 +6122,10 @@
         <v>53</v>
       </c>
       <c r="E261" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>2</v>
       </c>
@@ -6121,10 +6139,10 @@
         <v>53</v>
       </c>
       <c r="E262" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>2</v>
       </c>
@@ -6138,10 +6156,10 @@
         <v>53</v>
       </c>
       <c r="E263" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>2</v>
       </c>
@@ -6155,10 +6173,10 @@
         <v>53</v>
       </c>
       <c r="E264" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>2</v>
       </c>
@@ -6172,10 +6190,10 @@
         <v>53</v>
       </c>
       <c r="E265" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>2</v>
       </c>
@@ -6189,10 +6207,10 @@
         <v>53</v>
       </c>
       <c r="E266" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>2</v>
       </c>
@@ -6206,10 +6224,10 @@
         <v>53</v>
       </c>
       <c r="E267" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>2</v>
       </c>
@@ -6223,10 +6241,10 @@
         <v>53</v>
       </c>
       <c r="E268" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>2</v>
       </c>
@@ -6240,10 +6258,10 @@
         <v>53</v>
       </c>
       <c r="E269" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>2</v>
       </c>
@@ -6257,10 +6275,10 @@
         <v>53</v>
       </c>
       <c r="E270" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>2</v>
       </c>
@@ -6274,10 +6292,10 @@
         <v>53</v>
       </c>
       <c r="E271" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>2</v>
       </c>
@@ -6291,10 +6309,10 @@
         <v>53</v>
       </c>
       <c r="E272" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2</v>
       </c>
@@ -6308,10 +6326,10 @@
         <v>53</v>
       </c>
       <c r="E273" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>2</v>
       </c>
@@ -6325,10 +6343,10 @@
         <v>53</v>
       </c>
       <c r="E274" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>2</v>
       </c>
@@ -6342,10 +6360,10 @@
         <v>53</v>
       </c>
       <c r="E275" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>2</v>
       </c>
@@ -6359,10 +6377,10 @@
         <v>53</v>
       </c>
       <c r="E276" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>2</v>
       </c>
@@ -6376,10 +6394,10 @@
         <v>53</v>
       </c>
       <c r="E277" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>2</v>
       </c>
@@ -6393,10 +6411,10 @@
         <v>53</v>
       </c>
       <c r="E278" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>2</v>
       </c>
@@ -6410,10 +6428,10 @@
         <v>53</v>
       </c>
       <c r="E279" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>2</v>
       </c>
@@ -6427,10 +6445,10 @@
         <v>55</v>
       </c>
       <c r="E280" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>2</v>
       </c>
@@ -6444,10 +6462,10 @@
         <v>55</v>
       </c>
       <c r="E281" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>2</v>
       </c>
@@ -6461,10 +6479,10 @@
         <v>55</v>
       </c>
       <c r="E282" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>2</v>
       </c>
@@ -6478,10 +6496,10 @@
         <v>55</v>
       </c>
       <c r="E283" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>2</v>
       </c>
@@ -6495,10 +6513,10 @@
         <v>55</v>
       </c>
       <c r="E284" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>2</v>
       </c>
@@ -6512,10 +6530,10 @@
         <v>55</v>
       </c>
       <c r="E285" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>2</v>
       </c>
@@ -6529,10 +6547,10 @@
         <v>57</v>
       </c>
       <c r="E286" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>2</v>
       </c>
@@ -6546,10 +6564,10 @@
         <v>57</v>
       </c>
       <c r="E287" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>2</v>
       </c>
@@ -6563,10 +6581,10 @@
         <v>57</v>
       </c>
       <c r="E288" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>2</v>
       </c>
@@ -6580,10 +6598,10 @@
         <v>57</v>
       </c>
       <c r="E289" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>2</v>
       </c>
@@ -6597,10 +6615,10 @@
         <v>57</v>
       </c>
       <c r="E290" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>2</v>
       </c>
@@ -6614,10 +6632,10 @@
         <v>59</v>
       </c>
       <c r="E291" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>2</v>
       </c>
@@ -6631,10 +6649,10 @@
         <v>59</v>
       </c>
       <c r="E292" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>2</v>
       </c>
@@ -6648,10 +6666,10 @@
         <v>59</v>
       </c>
       <c r="E293" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>2</v>
       </c>
@@ -6665,10 +6683,10 @@
         <v>59</v>
       </c>
       <c r="E294" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>2</v>
       </c>
@@ -6682,10 +6700,10 @@
         <v>59</v>
       </c>
       <c r="E295" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>2</v>
       </c>
@@ -6699,10 +6717,10 @@
         <v>59</v>
       </c>
       <c r="E296" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>2</v>
       </c>
@@ -6716,10 +6734,10 @@
         <v>59</v>
       </c>
       <c r="E297" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>2</v>
       </c>
@@ -6733,10 +6751,10 @@
         <v>59</v>
       </c>
       <c r="E298" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>2</v>
       </c>
@@ -6750,10 +6768,10 @@
         <v>59</v>
       </c>
       <c r="E299" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>2</v>
       </c>
@@ -6767,10 +6785,10 @@
         <v>61</v>
       </c>
       <c r="E300" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>2</v>
       </c>
@@ -6784,10 +6802,10 @@
         <v>61</v>
       </c>
       <c r="E301" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>2</v>
       </c>
@@ -6801,10 +6819,10 @@
         <v>61</v>
       </c>
       <c r="E302" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>2</v>
       </c>
@@ -6818,10 +6836,10 @@
         <v>61</v>
       </c>
       <c r="E303" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>2</v>
       </c>
@@ -6835,10 +6853,10 @@
         <v>61</v>
       </c>
       <c r="E304" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>2</v>
       </c>
@@ -6852,10 +6870,10 @@
         <v>61</v>
       </c>
       <c r="E305" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2</v>
       </c>
@@ -6869,10 +6887,10 @@
         <v>61</v>
       </c>
       <c r="E306" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>2</v>
       </c>
@@ -6886,10 +6904,10 @@
         <v>61</v>
       </c>
       <c r="E307" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>2</v>
       </c>
@@ -6903,10 +6921,10 @@
         <v>61</v>
       </c>
       <c r="E308" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>2</v>
       </c>
@@ -6920,10 +6938,10 @@
         <v>61</v>
       </c>
       <c r="E309" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>2</v>
       </c>
@@ -6937,10 +6955,10 @@
         <v>61</v>
       </c>
       <c r="E310" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>2</v>
       </c>
@@ -6954,10 +6972,10 @@
         <v>61</v>
       </c>
       <c r="E311" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>2</v>
       </c>
@@ -6971,10 +6989,10 @@
         <v>61</v>
       </c>
       <c r="E312" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>2</v>
       </c>
@@ -6988,10 +7006,10 @@
         <v>61</v>
       </c>
       <c r="E313" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>2</v>
       </c>
@@ -7005,10 +7023,10 @@
         <v>61</v>
       </c>
       <c r="E314" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>2</v>
       </c>
@@ -7022,10 +7040,10 @@
         <v>61</v>
       </c>
       <c r="E315" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>2</v>
       </c>
@@ -7039,10 +7057,10 @@
         <v>61</v>
       </c>
       <c r="E316" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>2</v>
       </c>
@@ -7056,10 +7074,10 @@
         <v>61</v>
       </c>
       <c r="E317" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>2</v>
       </c>
@@ -7073,10 +7091,10 @@
         <v>61</v>
       </c>
       <c r="E318" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>2</v>
       </c>
@@ -7090,10 +7108,10 @@
         <v>61</v>
       </c>
       <c r="E319" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>2</v>
       </c>
@@ -7107,10 +7125,10 @@
         <v>61</v>
       </c>
       <c r="E320" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>2</v>
       </c>
@@ -7124,10 +7142,10 @@
         <v>62</v>
       </c>
       <c r="E321" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>2</v>
       </c>
@@ -7141,10 +7159,10 @@
         <v>63</v>
       </c>
       <c r="E322" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>2</v>
       </c>
@@ -7158,10 +7176,10 @@
         <v>63</v>
       </c>
       <c r="E323" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>2</v>
       </c>
@@ -7175,10 +7193,10 @@
         <v>63</v>
       </c>
       <c r="E324" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>2</v>
       </c>
@@ -7192,10 +7210,10 @@
         <v>63</v>
       </c>
       <c r="E325" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>2</v>
       </c>
@@ -7209,10 +7227,10 @@
         <v>63</v>
       </c>
       <c r="E326" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>2</v>
       </c>
@@ -7226,10 +7244,10 @@
         <v>63</v>
       </c>
       <c r="E327" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="328" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>2</v>
       </c>
@@ -7243,10 +7261,10 @@
         <v>63</v>
       </c>
       <c r="E328" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>2</v>
       </c>
@@ -7260,10 +7278,10 @@
         <v>63</v>
       </c>
       <c r="E329" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>2</v>
       </c>
@@ -7277,10 +7295,10 @@
         <v>63</v>
       </c>
       <c r="E330" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>2</v>
       </c>
@@ -7294,10 +7312,10 @@
         <v>63</v>
       </c>
       <c r="E331" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>2</v>
       </c>
@@ -7311,10 +7329,10 @@
         <v>63</v>
       </c>
       <c r="E332" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>2</v>
       </c>
@@ -7328,10 +7346,10 @@
         <v>63</v>
       </c>
       <c r="E333" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="334" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>2</v>
       </c>
@@ -7345,10 +7363,10 @@
         <v>63</v>
       </c>
       <c r="E334" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>2</v>
       </c>
@@ -7362,10 +7380,10 @@
         <v>63</v>
       </c>
       <c r="E335" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>2</v>
       </c>
@@ -7379,10 +7397,10 @@
         <v>63</v>
       </c>
       <c r="E336" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>2</v>
       </c>
@@ -7396,10 +7414,10 @@
         <v>65</v>
       </c>
       <c r="E337" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>2</v>
       </c>
@@ -7413,10 +7431,10 @@
         <v>65</v>
       </c>
       <c r="E338" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>2</v>
       </c>
@@ -7430,10 +7448,10 @@
         <v>65</v>
       </c>
       <c r="E339" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>2</v>
       </c>
@@ -7447,10 +7465,10 @@
         <v>65</v>
       </c>
       <c r="E340" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>2</v>
       </c>
@@ -7464,10 +7482,10 @@
         <v>65</v>
       </c>
       <c r="E341" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>2</v>
       </c>
@@ -7481,10 +7499,10 @@
         <v>68</v>
       </c>
       <c r="E342" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>2</v>
       </c>
@@ -7498,10 +7516,10 @@
         <v>68</v>
       </c>
       <c r="E343" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>2</v>
       </c>
@@ -7515,10 +7533,10 @@
         <v>68</v>
       </c>
       <c r="E344" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>2</v>
       </c>
@@ -7532,10 +7550,10 @@
         <v>68</v>
       </c>
       <c r="E345" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>2</v>
       </c>
@@ -7549,10 +7567,10 @@
         <v>68</v>
       </c>
       <c r="E346" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>2</v>
       </c>
@@ -7566,10 +7584,10 @@
         <v>68</v>
       </c>
       <c r="E347" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>2</v>
       </c>
@@ -7583,10 +7601,10 @@
         <v>68</v>
       </c>
       <c r="E348" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>2</v>
       </c>
@@ -7600,10 +7618,10 @@
         <v>68</v>
       </c>
       <c r="E349" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>2</v>
       </c>
@@ -7617,10 +7635,10 @@
         <v>68</v>
       </c>
       <c r="E350" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>2</v>
       </c>
@@ -7634,10 +7652,10 @@
         <v>70</v>
       </c>
       <c r="E351" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>2</v>
       </c>
@@ -7651,10 +7669,10 @@
         <v>70</v>
       </c>
       <c r="E352" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>2</v>
       </c>
@@ -7668,10 +7686,10 @@
         <v>70</v>
       </c>
       <c r="E353" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>2</v>
       </c>
@@ -7685,10 +7703,10 @@
         <v>70</v>
       </c>
       <c r="E354" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>2</v>
       </c>
@@ -7702,10 +7720,10 @@
         <v>70</v>
       </c>
       <c r="E355" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>2</v>
       </c>
@@ -7719,10 +7737,10 @@
         <v>70</v>
       </c>
       <c r="E356" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>2</v>
       </c>
@@ -7736,10 +7754,10 @@
         <v>70</v>
       </c>
       <c r="E357" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>2</v>
       </c>
@@ -7753,10 +7771,10 @@
         <v>70</v>
       </c>
       <c r="E358" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>2</v>
       </c>
@@ -7770,10 +7788,10 @@
         <v>70</v>
       </c>
       <c r="E359" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>2</v>
       </c>
@@ -7787,10 +7805,10 @@
         <v>70</v>
       </c>
       <c r="E360" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>2</v>
       </c>
@@ -7804,10 +7822,10 @@
         <v>70</v>
       </c>
       <c r="E361" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>2</v>
       </c>
@@ -7821,10 +7839,10 @@
         <v>70</v>
       </c>
       <c r="E362" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>2</v>
       </c>
@@ -7838,10 +7856,10 @@
         <v>70</v>
       </c>
       <c r="E363" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>2</v>
       </c>
@@ -7855,10 +7873,10 @@
         <v>70</v>
       </c>
       <c r="E364" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>2</v>
       </c>
@@ -7872,10 +7890,10 @@
         <v>70</v>
       </c>
       <c r="E365" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>2</v>
       </c>
@@ -7889,10 +7907,10 @@
         <v>70</v>
       </c>
       <c r="E366" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>2</v>
       </c>
@@ -7906,10 +7924,10 @@
         <v>70</v>
       </c>
       <c r="E367" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>2</v>
       </c>
@@ -7923,10 +7941,10 @@
         <v>70</v>
       </c>
       <c r="E368" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>2</v>
       </c>
@@ -7940,10 +7958,10 @@
         <v>70</v>
       </c>
       <c r="E369" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>2</v>
       </c>
@@ -7957,10 +7975,10 @@
         <v>70</v>
       </c>
       <c r="E370" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>2</v>
       </c>
@@ -7974,10 +7992,10 @@
         <v>70</v>
       </c>
       <c r="E371" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>2</v>
       </c>
@@ -7991,10 +8009,10 @@
         <v>70</v>
       </c>
       <c r="E372" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>2</v>
       </c>
@@ -8008,10 +8026,10 @@
         <v>70</v>
       </c>
       <c r="E373" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>2</v>
       </c>
@@ -8025,10 +8043,10 @@
         <v>70</v>
       </c>
       <c r="E374" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>2</v>
       </c>
@@ -8042,10 +8060,10 @@
         <v>70</v>
       </c>
       <c r="E375" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>2</v>
       </c>
@@ -8059,10 +8077,10 @@
         <v>70</v>
       </c>
       <c r="E376" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>2</v>
       </c>
@@ -8076,10 +8094,10 @@
         <v>70</v>
       </c>
       <c r="E377" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>2</v>
       </c>
@@ -8093,10 +8111,10 @@
         <v>70</v>
       </c>
       <c r="E378" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>2</v>
       </c>
@@ -8110,10 +8128,10 @@
         <v>70</v>
       </c>
       <c r="E379" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>2</v>
       </c>
@@ -8127,10 +8145,10 @@
         <v>72</v>
       </c>
       <c r="E380" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>2</v>
       </c>
@@ -8144,10 +8162,10 @@
         <v>72</v>
       </c>
       <c r="E381" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>2</v>
       </c>
@@ -8161,10 +8179,10 @@
         <v>72</v>
       </c>
       <c r="E382" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>2</v>
       </c>
@@ -8178,10 +8196,10 @@
         <v>72</v>
       </c>
       <c r="E383" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>2</v>
       </c>
@@ -8195,10 +8213,10 @@
         <v>72</v>
       </c>
       <c r="E384" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>2</v>
       </c>
@@ -8212,10 +8230,10 @@
         <v>72</v>
       </c>
       <c r="E385" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>2</v>
       </c>
@@ -8229,10 +8247,10 @@
         <v>72</v>
       </c>
       <c r="E386" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>2</v>
       </c>
@@ -8246,10 +8264,10 @@
         <v>72</v>
       </c>
       <c r="E387" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>2</v>
       </c>
@@ -8263,10 +8281,10 @@
         <v>72</v>
       </c>
       <c r="E388" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>2</v>
       </c>
@@ -8280,10 +8298,10 @@
         <v>72</v>
       </c>
       <c r="E389" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>2</v>
       </c>
@@ -8297,10 +8315,10 @@
         <v>72</v>
       </c>
       <c r="E390" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>2</v>
       </c>
@@ -8314,10 +8332,10 @@
         <v>72</v>
       </c>
       <c r="E391" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>2</v>
       </c>
@@ -8331,10 +8349,10 @@
         <v>72</v>
       </c>
       <c r="E392" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>2</v>
       </c>
@@ -8348,10 +8366,10 @@
         <v>72</v>
       </c>
       <c r="E393" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>2</v>
       </c>
@@ -8365,10 +8383,10 @@
         <v>72</v>
       </c>
       <c r="E394" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>2</v>
       </c>
@@ -8382,10 +8400,10 @@
         <v>72</v>
       </c>
       <c r="E395" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>2</v>
       </c>
@@ -8399,10 +8417,10 @@
         <v>72</v>
       </c>
       <c r="E396" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>2</v>
       </c>
@@ -8416,10 +8434,10 @@
         <v>72</v>
       </c>
       <c r="E397" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>2</v>
       </c>
@@ -8433,10 +8451,10 @@
         <v>73</v>
       </c>
       <c r="E398" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>2</v>
       </c>
@@ -8450,10 +8468,10 @@
         <v>73</v>
       </c>
       <c r="E399" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>2</v>
       </c>
@@ -8467,10 +8485,10 @@
         <v>73</v>
       </c>
       <c r="E400" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>2</v>
       </c>
@@ -8484,10 +8502,10 @@
         <v>74</v>
       </c>
       <c r="E401" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>2</v>
       </c>
@@ -8501,10 +8519,10 @@
         <v>74</v>
       </c>
       <c r="E402" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>2</v>
       </c>
@@ -8518,10 +8536,10 @@
         <v>74</v>
       </c>
       <c r="E403" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>2</v>
       </c>
@@ -8535,10 +8553,10 @@
         <v>74</v>
       </c>
       <c r="E404" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>2</v>
       </c>
@@ -8552,10 +8570,10 @@
         <v>74</v>
       </c>
       <c r="E405" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>2</v>
       </c>
@@ -8569,10 +8587,10 @@
         <v>74</v>
       </c>
       <c r="E406" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>2</v>
       </c>
@@ -8586,10 +8604,10 @@
         <v>74</v>
       </c>
       <c r="E407" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="408" spans="1:5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>2</v>
       </c>
@@ -8603,10 +8621,10 @@
         <v>74</v>
       </c>
       <c r="E408" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>2</v>
       </c>
@@ -8620,10 +8638,10 @@
         <v>74</v>
       </c>
       <c r="E409" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>2</v>
       </c>
@@ -8637,10 +8655,10 @@
         <v>74</v>
       </c>
       <c r="E410" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>2</v>
       </c>
@@ -8654,10 +8672,10 @@
         <v>74</v>
       </c>
       <c r="E411" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>2</v>
       </c>
@@ -8671,10 +8689,10 @@
         <v>74</v>
       </c>
       <c r="E412" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>2</v>
       </c>
@@ -8688,10 +8706,10 @@
         <v>74</v>
       </c>
       <c r="E413" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>2</v>
       </c>
@@ -8705,10 +8723,10 @@
         <v>74</v>
       </c>
       <c r="E414" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>2</v>
       </c>
@@ -8722,10 +8740,10 @@
         <v>75</v>
       </c>
       <c r="E415" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>2</v>
       </c>
@@ -8739,10 +8757,10 @@
         <v>75</v>
       </c>
       <c r="E416" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>2</v>
       </c>
@@ -8756,10 +8774,10 @@
         <v>75</v>
       </c>
       <c r="E417" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>2</v>
       </c>
@@ -8773,10 +8791,10 @@
         <v>75</v>
       </c>
       <c r="E418" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>2</v>
       </c>
@@ -8790,10 +8808,10 @@
         <v>75</v>
       </c>
       <c r="E419" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>2</v>
       </c>
@@ -8807,10 +8825,10 @@
         <v>76</v>
       </c>
       <c r="E420" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>2</v>
       </c>
@@ -8824,10 +8842,10 @@
         <v>76</v>
       </c>
       <c r="E421" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>2</v>
       </c>
@@ -8841,10 +8859,10 @@
         <v>76</v>
       </c>
       <c r="E422" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>2</v>
       </c>
@@ -8858,10 +8876,10 @@
         <v>79</v>
       </c>
       <c r="E423" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>2</v>
       </c>
@@ -8875,10 +8893,10 @@
         <v>79</v>
       </c>
       <c r="E424" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>2</v>
       </c>
@@ -8892,10 +8910,10 @@
         <v>79</v>
       </c>
       <c r="E425" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>2</v>
       </c>
@@ -8909,10 +8927,10 @@
         <v>79</v>
       </c>
       <c r="E426" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>2</v>
       </c>
@@ -8926,10 +8944,10 @@
         <v>79</v>
       </c>
       <c r="E427" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>2</v>
       </c>
@@ -8943,10 +8961,10 @@
         <v>79</v>
       </c>
       <c r="E428" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>2</v>
       </c>
@@ -8960,10 +8978,10 @@
         <v>79</v>
       </c>
       <c r="E429" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>2</v>
       </c>
@@ -8977,10 +8995,10 @@
         <v>79</v>
       </c>
       <c r="E430" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>2</v>
       </c>
@@ -8994,10 +9012,10 @@
         <v>79</v>
       </c>
       <c r="E431" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>2</v>
       </c>
@@ -9011,10 +9029,10 @@
         <v>79</v>
       </c>
       <c r="E432" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>2</v>
       </c>
@@ -9028,10 +9046,10 @@
         <v>79</v>
       </c>
       <c r="E433" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>2</v>
       </c>
@@ -9045,10 +9063,10 @@
         <v>79</v>
       </c>
       <c r="E434" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>2</v>
       </c>
@@ -9062,10 +9080,10 @@
         <v>79</v>
       </c>
       <c r="E435" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>2</v>
       </c>
@@ -9079,10 +9097,10 @@
         <v>79</v>
       </c>
       <c r="E436" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>2</v>
       </c>
@@ -9096,10 +9114,10 @@
         <v>79</v>
       </c>
       <c r="E437" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>2</v>
       </c>
@@ -9113,10 +9131,10 @@
         <v>79</v>
       </c>
       <c r="E438" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>2</v>
       </c>
@@ -9130,10 +9148,10 @@
         <v>79</v>
       </c>
       <c r="E439" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>2</v>
       </c>
@@ -9147,10 +9165,10 @@
         <v>79</v>
       </c>
       <c r="E440" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>2</v>
       </c>
@@ -9164,10 +9182,10 @@
         <v>79</v>
       </c>
       <c r="E441" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>2</v>
       </c>
@@ -9181,10 +9199,10 @@
         <v>79</v>
       </c>
       <c r="E442" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>2</v>
       </c>
@@ -9198,10 +9216,10 @@
         <v>82</v>
       </c>
       <c r="E443" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>2</v>
       </c>
@@ -9215,10 +9233,10 @@
         <v>82</v>
       </c>
       <c r="E444" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>2</v>
       </c>
@@ -9232,10 +9250,10 @@
         <v>82</v>
       </c>
       <c r="E445" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>2</v>
       </c>
@@ -9249,10 +9267,10 @@
         <v>82</v>
       </c>
       <c r="E446" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>2</v>
       </c>
@@ -9266,10 +9284,10 @@
         <v>82</v>
       </c>
       <c r="E447" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>2</v>
       </c>
@@ -9283,10 +9301,10 @@
         <v>82</v>
       </c>
       <c r="E448" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>2</v>
       </c>
@@ -9300,10 +9318,10 @@
         <v>82</v>
       </c>
       <c r="E449" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>2</v>
       </c>
@@ -9317,10 +9335,10 @@
         <v>82</v>
       </c>
       <c r="E450" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>2</v>
       </c>
@@ -9334,10 +9352,10 @@
         <v>82</v>
       </c>
       <c r="E451" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>2</v>
       </c>
@@ -9351,10 +9369,10 @@
         <v>82</v>
       </c>
       <c r="E452" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>2</v>
       </c>
@@ -9368,10 +9386,10 @@
         <v>82</v>
       </c>
       <c r="E453" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>2</v>
       </c>
@@ -9385,10 +9403,10 @@
         <v>82</v>
       </c>
       <c r="E454" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>2</v>
       </c>
@@ -9402,10 +9420,10 @@
         <v>82</v>
       </c>
       <c r="E455" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>2</v>
       </c>
@@ -9419,10 +9437,10 @@
         <v>82</v>
       </c>
       <c r="E456" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>2</v>
       </c>
@@ -9436,10 +9454,10 @@
         <v>82</v>
       </c>
       <c r="E457" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>2</v>
       </c>
@@ -9453,10 +9471,10 @@
         <v>82</v>
       </c>
       <c r="E458" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>2</v>
       </c>
@@ -9470,10 +9488,10 @@
         <v>82</v>
       </c>
       <c r="E459" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>2</v>
       </c>
@@ -9487,10 +9505,10 @@
         <v>82</v>
       </c>
       <c r="E460" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>2</v>
       </c>
@@ -9504,10 +9522,10 @@
         <v>82</v>
       </c>
       <c r="E461" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>2</v>
       </c>
@@ -9521,10 +9539,10 @@
         <v>82</v>
       </c>
       <c r="E462" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>2</v>
       </c>
@@ -9538,10 +9556,10 @@
         <v>82</v>
       </c>
       <c r="E463" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>2</v>
       </c>
@@ -9555,10 +9573,10 @@
         <v>82</v>
       </c>
       <c r="E464" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>2</v>
       </c>
@@ -9572,10 +9590,10 @@
         <v>82</v>
       </c>
       <c r="E465" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>2</v>
       </c>
@@ -9589,10 +9607,10 @@
         <v>82</v>
       </c>
       <c r="E466" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>2</v>
       </c>
@@ -9606,10 +9624,10 @@
         <v>82</v>
       </c>
       <c r="E467" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>2</v>
       </c>
@@ -9623,10 +9641,10 @@
         <v>82</v>
       </c>
       <c r="E468" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>2</v>
       </c>
@@ -9640,10 +9658,10 @@
         <v>82</v>
       </c>
       <c r="E469" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>2</v>
       </c>
@@ -9657,10 +9675,10 @@
         <v>82</v>
       </c>
       <c r="E470" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>2</v>
       </c>
@@ -9674,10 +9692,10 @@
         <v>82</v>
       </c>
       <c r="E471" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>2</v>
       </c>
@@ -9691,10 +9709,10 @@
         <v>82</v>
       </c>
       <c r="E472" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>2</v>
       </c>
@@ -9708,10 +9726,10 @@
         <v>82</v>
       </c>
       <c r="E473" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>2</v>
       </c>
@@ -9725,10 +9743,10 @@
         <v>82</v>
       </c>
       <c r="E474" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>2</v>
       </c>
@@ -9742,10 +9760,10 @@
         <v>83</v>
       </c>
       <c r="E475" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>2</v>
       </c>
@@ -9759,10 +9777,10 @@
         <v>84</v>
       </c>
       <c r="E476" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>2</v>
       </c>
@@ -9776,10 +9794,10 @@
         <v>84</v>
       </c>
       <c r="E477" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>2</v>
       </c>
@@ -9793,10 +9811,10 @@
         <v>84</v>
       </c>
       <c r="E478" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>2</v>
       </c>
@@ -9810,10 +9828,10 @@
         <v>84</v>
       </c>
       <c r="E479" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>2</v>
       </c>
@@ -9827,10 +9845,10 @@
         <v>84</v>
       </c>
       <c r="E480" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>2</v>
       </c>
@@ -9844,10 +9862,10 @@
         <v>84</v>
       </c>
       <c r="E481" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>2</v>
       </c>
@@ -9861,10 +9879,10 @@
         <v>84</v>
       </c>
       <c r="E482" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>2</v>
       </c>
@@ -9878,10 +9896,10 @@
         <v>84</v>
       </c>
       <c r="E483" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>2</v>
       </c>
@@ -9895,10 +9913,10 @@
         <v>84</v>
       </c>
       <c r="E484" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>2</v>
       </c>
@@ -9912,10 +9930,10 @@
         <v>84</v>
       </c>
       <c r="E485" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>2</v>
       </c>
@@ -9929,10 +9947,10 @@
         <v>84</v>
       </c>
       <c r="E486" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>2</v>
       </c>
@@ -9946,10 +9964,10 @@
         <v>85</v>
       </c>
       <c r="E487" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>2</v>
       </c>
@@ -9963,10 +9981,10 @@
         <v>85</v>
       </c>
       <c r="E488" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>2</v>
       </c>
@@ -9980,10 +9998,10 @@
         <v>85</v>
       </c>
       <c r="E489" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>2</v>
       </c>
@@ -9997,10 +10015,10 @@
         <v>85</v>
       </c>
       <c r="E490" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>2</v>
       </c>
@@ -10014,10 +10032,10 @@
         <v>85</v>
       </c>
       <c r="E491" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>2</v>
       </c>
@@ -10031,10 +10049,10 @@
         <v>85</v>
       </c>
       <c r="E492" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>2</v>
       </c>
@@ -10048,10 +10066,10 @@
         <v>85</v>
       </c>
       <c r="E493" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>2</v>
       </c>
@@ -10065,10 +10083,10 @@
         <v>87</v>
       </c>
       <c r="E494" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>2</v>
       </c>
@@ -10082,10 +10100,10 @@
         <v>87</v>
       </c>
       <c r="E495" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>2</v>
       </c>
@@ -10099,10 +10117,10 @@
         <v>87</v>
       </c>
       <c r="E496" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>2</v>
       </c>
@@ -10116,10 +10134,10 @@
         <v>87</v>
       </c>
       <c r="E497" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>2</v>
       </c>
@@ -10133,10 +10151,10 @@
         <v>87</v>
       </c>
       <c r="E498" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>2</v>
       </c>
@@ -10150,10 +10168,10 @@
         <v>87</v>
       </c>
       <c r="E499" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>2</v>
       </c>
@@ -10167,10 +10185,10 @@
         <v>87</v>
       </c>
       <c r="E500" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>2</v>
       </c>
@@ -10184,10 +10202,10 @@
         <v>87</v>
       </c>
       <c r="E501" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>2</v>
       </c>
@@ -10201,10 +10219,10 @@
         <v>87</v>
       </c>
       <c r="E502" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>2</v>
       </c>
@@ -10218,10 +10236,10 @@
         <v>87</v>
       </c>
       <c r="E503" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>2</v>
       </c>
@@ -10235,10 +10253,10 @@
         <v>87</v>
       </c>
       <c r="E504" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>2</v>
       </c>
@@ -10252,10 +10270,10 @@
         <v>87</v>
       </c>
       <c r="E505" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>2</v>
       </c>
@@ -10269,10 +10287,10 @@
         <v>87</v>
       </c>
       <c r="E506" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>2</v>
       </c>
@@ -10286,10 +10304,10 @@
         <v>87</v>
       </c>
       <c r="E507" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>2</v>
       </c>
@@ -10303,10 +10321,10 @@
         <v>87</v>
       </c>
       <c r="E508" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>2</v>
       </c>
@@ -10320,10 +10338,10 @@
         <v>87</v>
       </c>
       <c r="E509" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>2</v>
       </c>
@@ -10337,10 +10355,10 @@
         <v>88</v>
       </c>
       <c r="E510" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>2</v>
       </c>
@@ -10354,10 +10372,10 @@
         <v>89</v>
       </c>
       <c r="E511" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>2</v>
       </c>
@@ -10371,10 +10389,10 @@
         <v>89</v>
       </c>
       <c r="E512" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>2</v>
       </c>
@@ -10388,10 +10406,10 @@
         <v>89</v>
       </c>
       <c r="E513" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>2</v>
       </c>
@@ -10405,10 +10423,10 @@
         <v>89</v>
       </c>
       <c r="E514" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>2</v>
       </c>
@@ -10422,10 +10440,10 @@
         <v>89</v>
       </c>
       <c r="E515" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>2</v>
       </c>
@@ -10439,10 +10457,10 @@
         <v>89</v>
       </c>
       <c r="E516" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>2</v>
       </c>
@@ -10456,10 +10474,10 @@
         <v>89</v>
       </c>
       <c r="E517" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>2</v>
       </c>
@@ -10473,10 +10491,10 @@
         <v>89</v>
       </c>
       <c r="E518" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>2</v>
       </c>
@@ -10490,10 +10508,10 @@
         <v>89</v>
       </c>
       <c r="E519" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>2</v>
       </c>
@@ -10507,10 +10525,10 @@
         <v>89</v>
       </c>
       <c r="E520" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="521" spans="1:5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>2</v>
       </c>
@@ -10524,10 +10542,10 @@
         <v>89</v>
       </c>
       <c r="E521" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>2</v>
       </c>
@@ -10541,10 +10559,10 @@
         <v>89</v>
       </c>
       <c r="E522" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>2</v>
       </c>
@@ -10558,10 +10576,10 @@
         <v>89</v>
       </c>
       <c r="E523" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="524" spans="1:5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>2</v>
       </c>
@@ -10575,10 +10593,10 @@
         <v>89</v>
       </c>
       <c r="E524" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="525" spans="1:5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>2</v>
       </c>
@@ -10592,10 +10610,10 @@
         <v>89</v>
       </c>
       <c r="E525" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="526" spans="1:5">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>2</v>
       </c>
@@ -10609,10 +10627,10 @@
         <v>89</v>
       </c>
       <c r="E526" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="527" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>2</v>
       </c>
@@ -10626,10 +10644,10 @@
         <v>89</v>
       </c>
       <c r="E527" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="528" spans="1:5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>2</v>
       </c>
@@ -10643,10 +10661,10 @@
         <v>89</v>
       </c>
       <c r="E528" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>2</v>
       </c>
@@ -10660,10 +10678,10 @@
         <v>89</v>
       </c>
       <c r="E529" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>2</v>
       </c>
@@ -10677,10 +10695,10 @@
         <v>89</v>
       </c>
       <c r="E530" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="531" spans="1:5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>2</v>
       </c>
@@ -10694,10 +10712,10 @@
         <v>89</v>
       </c>
       <c r="E531" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>2</v>
       </c>
@@ -10711,10 +10729,10 @@
         <v>89</v>
       </c>
       <c r="E532" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>2</v>
       </c>
@@ -10728,10 +10746,10 @@
         <v>89</v>
       </c>
       <c r="E533" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="534" spans="1:5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>2</v>
       </c>
@@ -10745,7 +10763,7 @@
         <v>89</v>
       </c>
       <c r="E534" t="s">
-        <v>400</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
